--- a/Documents/System.xlsx
+++ b/Documents/System.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
     <sheet name="Member" sheetId="2" r:id="rId2"/>
+    <sheet name="Node" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +182,46 @@
   </si>
   <si>
     <t>00000001-2</t>
+  </si>
+  <si>
+    <t>MethodID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Args</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>调用的方法的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属的方法的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -726,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -811,4 +852,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/System.xlsx
+++ b/Documents/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -568,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -709,37 +721,37 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -747,12 +759,23 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -858,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Documents/System.xlsx
+++ b/Documents/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Field
+Property
+Method
+Event
+Enum</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +261,42 @@
   </si>
   <si>
     <t>00000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>修饰符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsStatic</t>
+  </si>
+  <si>
+    <t>静态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberType</t>
+  </si>
+  <si>
+    <t>成员类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +319,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -582,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -788,10 +859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -800,7 +871,7 @@
     <col min="3" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -813,8 +884,17 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -827,8 +907,17 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -841,8 +930,17 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -855,8 +953,17 @@
       <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -868,12 +975,22 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documents/System.xlsx
+++ b/Documents/System.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,63 +155,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000002</t>
-  </si>
-  <si>
-    <t>00000003</t>
-  </si>
-  <si>
-    <t>00000004</t>
-  </si>
-  <si>
-    <t>00000005</t>
-  </si>
-  <si>
-    <t>00000006</t>
-  </si>
-  <si>
-    <t>00000007</t>
-  </si>
-  <si>
-    <t>00000008</t>
-  </si>
-  <si>
-    <t>00000021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000022</t>
-  </si>
-  <si>
-    <t>00000023</t>
-  </si>
-  <si>
-    <t>00000024</t>
-  </si>
-  <si>
     <t>Add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000001-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000001-2</t>
-  </si>
-  <si>
     <t>MethodID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Modifier</t>
   </si>
   <si>
@@ -297,6 +244,17 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Int32</t>
+  </si>
+  <si>
+    <t>System.Int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,202 +609,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -859,65 +765,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="4" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -928,62 +828,53 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="F4" t="b">
+      <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5">
+        <v>54</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="F5" t="b">
+      <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>67</v>
+      <c r="F5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1012,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1032,19 +923,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1058,13 +949,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
